--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_COA_AppropriationNumberProfile_EditProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_COA_AppropriationNumberProfile_EditProfile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529ABFBB-C913-4411-95EA-BE08C7086699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD737B52-89CF-4B58-BFF1-100709A26D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{22A16C8A-ABEC-4CFC-85D8-F67ACB10BD74}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{22A16C8A-ABEC-4CFC-85D8-F67ACB10BD74}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>Keyword</t>
   </si>
@@ -122,6 +122,15 @@
   </si>
   <si>
     <t>link_approNumberProfile_wait</t>
+  </si>
+  <si>
+    <t>checkAccessibility</t>
+  </si>
+  <si>
+    <t>EditProfile_AppropriationNumberProfile</t>
+  </si>
+  <si>
+    <t>SavePopUp_AppropriationNumberProfile</t>
   </si>
 </sst>
 </file>
@@ -553,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D76CB76-35DA-4B8F-9118-DE383056B86D}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -675,38 +684,36 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>11</v>
+      <c r="A9" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>6</v>
+      <c r="A10" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>7</v>
@@ -716,8 +723,8 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>11</v>
+      <c r="A11" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>15</v>
@@ -731,17 +738,37 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -752,7 +779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29BFD2CF-6EE8-46E7-9D5B-1349866D0EF0}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
